--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/22_Çanakkale_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/22_Çanakkale_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CCB85BD-CC5D-49AF-A44E-3BCEFF0794F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76EA347A-09BA-41C6-82CE-8330C146094E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7391324-FD99-4CD3-9402-0FE021BAFBC1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D05CF7D-2466-4492-A785-6F49BB0FE8E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{767378F1-8B3A-4251-91EE-234646101711}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{315B0DBA-7D37-4C61-92CE-A44324F8B105}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{030E9DAD-E702-4705-B8FE-ED09E9A66F00}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{D8103EDE-DC1A-4E0D-B5A1-609C8C0A54EC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{FC3A5E2F-DC16-42B2-8592-B0137B6C2368}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{120FBE02-0C19-4797-978B-8767387A95F5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{F8AB8403-363B-42C3-8945-CCB6308FE8E2}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{C1460252-9630-4AEE-A4ED-83B60BF0D7C8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD38C93E-9CD3-4209-9B26-1F0FDB65CA73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A92B34C-940D-43C3-A02A-538EEAA989A7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2463,18 +2463,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8C527E12-9769-4C15-B68B-B631C5B2D534}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{843382EB-6E25-4BEF-B700-4944F447E274}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2E37830B-09EA-46A6-A6F4-2C06ABAB626A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A15B08A8-4B48-47BC-B43D-B8D3903896D5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EE6DB74A-9C30-4204-A8C8-956A7A537BDF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{59432A1B-59AE-41ED-A03E-1F8E45D058AE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1511E465-5EF2-45D6-83FD-3FF5D252252F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{18FF21A8-BD02-4DC8-8FDA-28DF3602CBB1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D83E1DA4-BE95-4046-A249-BE54D7846166}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{64FEB592-6052-45F1-9347-B952164C5D03}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{162C2A1A-0044-44D9-BED9-672929F1BC72}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A022E946-3E26-4166-AD16-1964EF4C6B8E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D13388AF-6282-4BF7-B408-040C086118E7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A890E22B-7905-4EEB-9155-D4D3D8A0829C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{63358B30-FC86-419B-BF48-C6B8896428AD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B9C14DFD-6F83-44DA-94DE-2319A5F8BC72}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7FA9A085-3279-49A8-A40F-3C7111001314}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{482CD243-E9BF-4ABD-8125-F92E3F337F32}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{95DB95CE-49C7-460E-93F4-768D874FF6DE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{39F2253F-B69B-48C6-AB2B-05D16B0FF015}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3C4BA8BE-0573-4364-8904-9AB2FFD48B16}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{045C60F2-828E-4ECF-A4D4-C345C7C17FC8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F5AB9566-68B7-4590-80B7-76817BD5B203}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F6955C60-6D00-42D4-81B8-842C037265D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2487,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D2596E-FFA6-4863-BB2F-A06302A927E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE6D7EC-2EA6-4FD3-98F5-DCB2AD357138}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3704,18 +3704,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AEF62B11-D881-442D-A5A0-2EB6C40F64F3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2F08518C-D710-45CF-8F94-F4E9EA46AE29}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DA4D06DC-160B-4B06-B327-2EBB99DA0B38}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3646E73E-DBA4-4742-B0A6-8F6E33F43533}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E1E5DAD2-C73C-43F1-89C8-E1F04A385504}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CF578D03-9840-47AC-B946-7F7361F07D01}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9C4D7622-97CA-4857-B038-88D90E179806}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0B9D4A5B-678C-4F34-B328-9A151E7DE2FB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AC83F717-271F-4639-91EB-E06DA7C8A29D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{49204E25-C103-4C04-B418-A2B08B6F0451}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A11F17A0-25B0-443E-A876-64C64F98BE4B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{86B1DD92-67DE-4AFC-9584-C07339863CB9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A90D1BF4-72D5-4C36-B231-9548B71B6956}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{67BD59AA-5869-44F7-BA74-5A54E40C0E18}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3236D537-7473-4968-9ECF-068AE1D8493C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A1C1495E-5C5B-446A-B0BE-D996CAC37A29}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4042CC9D-487E-4CEE-AE9B-571933B6EA72}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{93E54BD5-8548-4B4D-A679-69684ADADB47}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F9E7C397-4966-4676-8A8E-8CA5660879A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AB66ACAA-A810-4F6E-ABAA-5029274E281D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6F58C4F4-6024-4AC0-8FA9-65A5B1CA1EBC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A0E4A367-94FC-4785-8A4E-2C767D601827}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CFD904B2-7746-4367-9FB4-37E826709AB0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0DC8F840-9451-4311-ABD6-6D34B60704FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3728,7 +3728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070F111C-A976-4355-9BC5-ABA6BAC6C9FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14099CC3-6159-4A62-A85F-AB7CDE1FE022}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4933,18 +4933,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{22C9695B-D245-4677-BD54-4AC429985A9B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{92C7858D-372C-4F08-B3B3-0BD76356285D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C0759166-41D7-4023-A293-599A0C7EF9F0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C5A7417B-8D00-4F24-8B83-0434B4A73CAD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{35D50BF9-693A-49AD-9434-0E4696EE4FE4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E233177F-E956-4C0D-B8F1-D77D287241F2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{423ABFD4-4D99-4408-88FA-013A4988942F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6DD57306-AFC9-4A00-8058-D81413546D1A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{14A080FD-1048-4E67-9ACE-5EC9A4387BB6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A5CBA024-52D8-4F32-858D-3A3F68A69B6A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7A81E722-34FC-4B3B-8F8E-3F43D95E9DD9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{65D76BD8-D671-497B-96C3-805BF7053FBF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1B7FCEFB-966D-4B52-9A5B-2DE3CBBD1089}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A95A7E57-BC6C-4DF1-A99D-98B4C35FAD60}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{833056B0-4840-4587-8820-A2A9B20029BF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4B183BAF-7710-4C51-96DB-BD8AE4B20C9A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8FB1BEF1-6237-4E37-923C-3FCD0C1D740D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CAA161BC-2877-4639-A34B-D439E70DE8F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{62DB8B29-09DA-4E53-BB20-00A2862BAE13}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9BC618D0-5B6C-4F5D-A9AC-D4E7A5A3F03A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A1F8F3E5-5279-45D1-A059-29F225E649C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D37D6AAB-8748-41C9-9F4D-F420A2A7651F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3158A529-1789-4D9C-9F5F-4EE733AE7205}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4C39D9A0-DC1B-4FAB-8637-87075B7110DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4957,7 +4957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF811C07-2608-4797-8B86-B939CF0CEB78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841D1C04-640B-49BF-9462-A416578C4E6A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6152,18 +6152,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F797EFEB-475E-4AB1-A141-7A32153C8398}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{902BF997-3E2F-400D-9241-5CFA923F3B8E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6CAB24D7-C73C-4399-8578-21AD04993ABC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{81505CB5-BB38-4D2C-86BA-85D40118734C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5777856C-088F-43F4-A088-085946DD8235}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4FF09C23-B00A-49C0-8D37-DF04EA702350}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8521537D-B4E6-4CCF-B895-09334383A7D6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8E4876B1-8C0C-4BEB-89E0-EDCBBEC090B3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{56A89304-D2BD-4138-A456-8F27CB88F680}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A69EB652-0A41-4C54-9B86-4E4FCC3FC972}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{034DA5DD-8256-46C8-84D3-2F4048747C08}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{431850D8-9E73-4729-A57F-16C78E52CD54}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8304827F-4946-4FB5-9606-51C14E59DA7B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CF302B0E-78A5-4F37-A5EA-FC07BEF4BAD3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{68812A5F-684A-491F-B004-B8067A3AE8FE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CA6BC91F-26AE-485F-8889-7AAF8755B6C4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3E2A9222-5CD6-4D82-812C-99C6A3784038}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{41655C58-8D48-4E8F-8BC0-8C9F7F2C1D92}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AAE5F8E4-51CB-447C-9370-C6B484051A4A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6D8A3365-19AA-4081-B8DB-13D0666A8FE1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D7CE9ABB-5AC8-4EAE-B535-851E99212EA0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1557C0D1-206D-481F-B99E-CD35C096268D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1E28B730-53C6-46FA-8805-ADC68A0361B0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9F3A14F6-616C-4C6F-ACD4-0EDFAC4E3FAF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6176,7 +6176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F19EA8-ECBE-43D5-AAEC-F19438FA63AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0538E99F-1607-4CE3-A988-A1587A3763BB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7405,18 +7405,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{79BDF7C7-AB7B-4171-8D3B-1A61B92B0AC0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{86B27B8E-C9E5-4C5E-BB63-F4BBB79745E7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F9916D80-5A47-401D-A728-BF525E502BBD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D368A468-0AD3-416B-8F37-7131E4BB41DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F270AE7C-3EEB-43CE-B860-C383161260C3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1FF59508-B0D3-427F-B26D-B97826B41D85}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A34CA307-4BAA-4003-9B6A-3EA06BB1E8A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3DAD0EE3-2838-4077-A543-CAAFFE715D10}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{60B8FC40-BBB9-4BCB-B43C-7109316BC47C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{405A0147-D424-4AEA-A5B1-8722F814A1C8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{14E0D1D3-1399-4205-AB18-9A61BF575485}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{358D2EE5-F251-4ED8-BFAC-E322405EA183}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E3859384-3C84-4608-A8D0-DBA02EE520E2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BFED2F6A-4492-4480-B223-50B1DE868698}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EE4CF381-1692-4466-B4FE-E79B9CAD061A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3558C08E-FC78-4CAC-93B3-FE0BE00C7FF5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{49DD0CE0-1E0D-4A99-801B-59FD0AEF9D64}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BDFB50D9-132E-47DD-8828-76FFA7A244C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4F61EC2E-57AE-4CB2-8621-4A2FF5F5CD95}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D4A26B5F-B701-48F4-9BDD-D07DEE350409}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A7B44E22-A38B-471A-A216-7C2B84D3D7C2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4CAF3DC4-208E-43B0-98B3-147591B1D3F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5347CC24-0801-4C94-984E-C1794754C8E9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{097BDDC6-0E8E-4C6D-BCF7-EF51500B9B10}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7429,7 +7429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EACEA1C-5B18-4FE3-B26F-A6426613E40B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA6483-62DC-41E5-90B4-178970C88F0D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8662,18 +8662,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8A8B779A-48E8-4BF0-B154-AE60D14EEAB8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{15FFE9DD-7C2C-4103-AB9B-D1783F6F8651}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1AB730C1-87FC-4D7B-829B-26E0EF95156F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7FBA879D-1813-471F-AD9B-B75ACCA26E12}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3C0E3C62-6ED7-417D-B326-F72D8E568991}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0566479D-2BC2-46E5-BDB0-6F2300617DE9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8ECBA04E-6DC2-4EF7-BB72-368836E31F3D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{240478CA-2288-4B8B-866D-F61E5B477462}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9DEE604B-4262-464A-8A3D-E35236EB34DD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{09F71384-23FE-451B-9AE7-BABCA0E91C62}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{639B5A48-4DEE-4BAB-B53C-163363B60E18}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4C0A31A6-AF54-45A3-BBF7-CBC66900268E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{005C6980-9471-4847-97E6-30923979E81D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AABC83E9-4593-41AB-A66B-B6FDE884B651}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C5B57E21-6000-4F4B-84C0-504C155F8F2C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{99B72D4E-C7B9-4E31-B98E-6F871C3D6FAB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{30808D48-6D39-4367-9877-DDCCF9D3D85C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{08819C56-ED30-430F-AC4E-EBD4F0AEABE9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E732BBF0-6AF0-41F1-AD06-A84A95BF7734}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5A42376B-7757-45DC-8582-1BCB80E0E200}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6CA258E5-676E-4E7E-BB0D-88C77C41FEF2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{94EADD28-5EA9-4278-A1DB-5B2C4875823D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5D3C9228-EAA7-4D36-BD00-747EB1A7F974}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A3E09B37-8450-49F8-9AD2-00F858C8374E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8686,7 +8686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452C6718-0EFB-4FA2-9488-3C4E77FCE92D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE6234A-6307-47DC-97CB-FE96385C4F47}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9917,18 +9917,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4D2252B3-19EF-462E-843A-741811CD41C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C477DA64-1911-4FD6-9B67-D116731C75AA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3F25702B-848C-4E99-A437-BD11BEBC5132}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4600D938-E870-4205-8371-501BF41E3D5D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{981934AD-0215-4E54-9762-71A82E8053B9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0556A323-A9FA-4103-AAA7-856602B6803D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{03B13E52-F08E-4C56-8051-ABFB36416297}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A578940B-5376-4F09-AC52-FEB8BD7A9E09}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D02534BE-945D-47DC-8023-5F69EF7171C4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E97ABFF7-FFB7-4500-9FC0-17B14C7C8F75}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E77FF2FF-0872-46A2-AB41-0C9F01EFAAE5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9A246CE2-7081-423F-957C-A46B4EDFBA89}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{693C8ACC-E3EB-46B1-BEA5-3346C7613745}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B8C3E8C1-86F0-4724-9E68-1386569ECC71}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{26B8601A-2556-4076-B0BA-621761ED7B7A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FBA64732-04AA-4C04-A650-03E308F46E98}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0BE31C17-8565-4B93-9625-5B7CA92B1C5E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{38553DDB-A2C7-487F-978D-EB1FB12B7E68}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4C4B62CC-A405-4639-B26B-2BD80737A8A8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8674F125-ABD1-4E5B-8004-1A1C334FE932}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C2D89B99-2A53-40B0-B013-07769AD22B67}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{662089F1-24BD-4A17-9F23-F2056144F3EF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CE58718D-A837-4628-9B0E-E071A71B3C7C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5054AB11-A860-42FD-8C29-EFF2D53D0B66}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9941,7 +9941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBD4B43-E650-4638-9ED0-4C1E9C02FC0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2169688A-FE38-4184-84BE-7021C96A236A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11170,18 +11170,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{97ED2099-D32D-43B0-8146-3DA6D567ADB5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{63F30B50-690D-4D6E-AEF4-50B1617A8C9A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{90B1CC30-DFD7-4A0C-80AE-8CB8894B2A7F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0A2FA459-3310-4E28-AEAE-BC9E120405E5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9F8AF8E6-F966-46B2-B72B-A899980429AD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8E0AE3CA-053C-4F25-A765-48D5A6D1603F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B5356580-4076-4BA7-9094-AEEF5EBB9023}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4A58A08C-33A2-443D-BD03-14679EDA7454}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CB603D61-B228-440A-8A25-88173A261477}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{531FE1AE-89F5-410C-8FD8-CE90A44E26AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1571DF76-A41C-458C-8C42-D44CDD0F05C9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1AF3FB48-BA02-46E7-9F16-91C005E2C0D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FDDBC864-54D3-4B14-8B09-BF154A2B27EA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FE6E15AE-E12D-4C7C-879F-ED24A738B184}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AB05A8B7-59AC-4B95-92FC-D084DA4C2ED0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B4B867D2-D83C-48BA-ACE5-BC7E43522CFC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{83E7863A-5EDF-473D-9EB6-F1DF55A9D807}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{51EECAAA-0E7D-4809-B740-32E104574AB1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AD25B712-4EFD-4265-BE61-8CC518193F30}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9D7266C4-4552-4611-A9BD-0BBBAB5C8C09}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9DCD64DC-B8E2-4DA0-8C73-922015228593}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{80E7CC7C-0C5F-45FA-B3A5-C520FFCA43F7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{62F79111-F567-4E6E-B831-B8EF64AE0A7C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EFCE14E3-144A-4D76-A9D8-07CFCC02E422}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11194,7 +11194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C35F246-8F66-4D33-83F3-7BB1841551E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355EBB4-0861-418D-A025-8D833DBD6E62}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12423,18 +12423,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0435BA03-28C9-4D07-BB2A-936A30495872}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DF226E2D-AA22-42EC-8132-EB3669A5F393}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9E719C2A-0A3C-4702-AC8D-6C10F95A427C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{51C66488-D1E1-47ED-B99E-49FA19173268}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{86AA5184-20AF-4621-92DF-3CF58A01869A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4F4E9A76-1482-4496-BE31-4C16C65A4CBD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2827563C-AF7B-42F2-A8D0-27DBEF376F82}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D5A70111-DDCD-4FC7-8036-6E68782CA06D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CED40549-618E-4532-B25E-E393177C4E2A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{03F274F2-2F93-433C-A5AA-AA1F01DD441C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AB5F9B6F-47CF-4BCB-BBE8-4206D39839A8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6381E5D4-8083-43E8-9BA0-551F8E38D71D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E679D9BB-1CC9-401C-B3B4-2B2C0A388711}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B98D18FE-909E-4C6F-90A9-B21EF4345C6E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BA0FFAE0-6E8B-4059-ABB8-6807377FADE8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F6099F71-19B5-4C17-B454-B5682D9B5585}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FE5963DB-8ECB-4FCA-9E8A-A34059953EDA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{150874FE-063E-4750-AB6E-F282E8F629CD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{856242B6-B4C3-459D-845A-85287C4C34AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9CE84380-D02C-4DBC-91BD-8DC131B3B9D7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{70B1C8C6-6DD5-41A7-BFBB-5FC2EBAC85A9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1705E191-9BF1-4C5B-B4A9-30E9333F414E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C6511231-F0E1-49C4-9897-A4B3FD7282BE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{529A6FAD-86ED-4FB5-BBF4-6EB34F74F910}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12447,7 +12447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78F8EC6-9837-4210-A1A8-80D6CF11FEC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1F9E3C-6260-477A-AECE-BAD4DED58713}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13676,18 +13676,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2CE535CC-DEEC-4489-992A-B77D9FF0A93E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0103D469-153C-4305-A859-F83517B3539D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{64F71EAF-F506-43EC-92D3-86A27975CF8C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{24DD9CE1-A0C8-4614-8854-0A64B94D90CF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C4F9010F-25EB-4B26-9B8F-A5DDE9279379}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7A55B95E-6A82-4D96-AA26-50B2A8DF8EF0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{389A233B-8DBE-4409-9FEE-654CCD08E63F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B810C4F5-16FC-4BE5-8BC7-41973DB8577F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6F848B74-3DF5-411A-AFBF-F81F836A0045}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ED468C92-BAF5-4845-92A4-E948E1D743DD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F7B79EFB-FBD7-4674-BE1C-D27A32A179EF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1AA44084-A2D3-42CA-BD94-B0B9353D2AB7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B0E71CD7-12BF-45A0-9A77-217E804F70A0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AB33D531-99A8-4254-A2EC-DE1119778B6D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{02639DC3-D017-453D-98A6-E72F311B80C5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0A619C45-6F1F-4901-A2B3-42EFD6C61473}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AEAB96BC-A7B6-41F1-BE8A-665A486F65BC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2A06B3C2-CA93-401D-AB65-B5493BC18C57}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{69C2A36F-4564-4846-ADAD-56016F1DD542}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2570D9C1-4EC6-4A38-8F10-C42F209C2AF4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{965F8F65-3EF0-4FE3-8D57-5E61779D7F74}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D34DAA0B-0FB0-4A77-87E1-DC09FB68253A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EC360762-E531-46E3-BEA7-6D94B5A00AE5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8E51570D-082F-4475-81C9-6231C2AA58E0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13700,7 +13700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8295D8-E941-4CCB-8509-7FFD49AA7774}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE1CEB5-8D8C-48C4-83B9-72D4674E0C5E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14925,18 +14925,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{87DA4671-1209-427B-A2AE-876A709268FD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{197F1612-9935-4215-B160-E6D6E87CC967}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{26E2BBCD-3429-4AC5-BCBD-5C4671927AA0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DEE230D4-D2A0-42DB-9520-FDAE690C1934}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5410D1A4-4461-4629-B4F9-093A4F2625A6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{435BA92B-72D7-4048-BBDE-9962200BAF34}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CC985F53-E47D-49DB-B6D7-1307CAE6C74A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{41DBA458-05AD-4185-A093-735BD3C43448}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FD2ECF06-4718-4D49-AFBC-DDDF206BC305}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ED47711B-A985-484B-B718-AFDE534CD613}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{668537B2-9B27-4190-9D3B-6859722F84B3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{39941F8D-9DD9-4C98-9C98-B68A5546D740}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A05B141E-D162-47ED-BAA0-0250A6D0F2ED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D17C799A-7900-475A-8BB0-A8DAF5CE9502}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AD2FC92B-2E7D-45EE-BEF5-4ACB48154EBC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1FE76B82-81C4-45B1-9D6C-961E7E5027BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0F128AE9-58E6-45B9-A7A2-CC6DE3D89F17}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7268A293-EF83-4F66-AF62-A2FC14B926CE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6F6B4C5B-2D5B-4CDC-B2C9-FF84904BD7CB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5AF42259-ECE5-4AA0-A8CE-24F260E6752E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{95A04003-50C9-4F9E-9F0E-3AD443EE5DE2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BB830795-1820-4845-866B-CAA3DE6470A6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8F76FEC2-70E3-4117-A5CB-E2BD673B5D26}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{479D7213-3D98-47D3-AB2A-EE38534D36EE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14949,7 +14949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3812759-31EB-4AF1-8B7C-36B980DAD49E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92B4AF9-5B24-4D74-8A7A-EC312CD5EAD8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16166,18 +16166,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{62BBE0E2-250C-4E46-BF58-FB9BCA5E795F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D0E32EDC-00B0-4BA0-8534-E0D29DDCBA5B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3247CCE2-86E4-45D4-A10A-09D5E8F9AB1A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ED2207EC-8741-4AD9-B44C-B1980C7943AC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3CEB044A-01F5-4422-8036-1BEC867E017D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A9F0DBC5-0D57-45FA-AF06-7CB98418C2AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C600D5C9-4063-440C-945B-E10AAAE71C32}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{625F8EC7-72E2-4F15-A872-2DF5F8784F72}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C5D7EBF3-1E7A-4CF4-B477-153B683D29CC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F5FACC1E-0E19-4A0C-B373-389C3897260F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FBD89743-03C0-4FF5-82EF-6D20047ED39C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{056BD343-556B-4D39-95EB-37C486F33B97}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{41E5FD2A-3EEA-4ABC-B3C2-E93154CC5ED3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{66261273-13AA-4F04-AC9A-CFCEB443E02A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{19E92850-3BF8-4068-9512-41CBA24ECC04}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{66D8CD4E-42BA-42BC-BF7D-4822D546E15A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9EF1FCEE-3842-42FA-AAAE-5A3C7FF6C88D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B615D11A-362B-45AA-8D56-5FC2D644027C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{212A897D-F9DB-41DE-8390-74FD1A226C97}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2C4D108D-99A7-47DD-95A3-CC09E23E8CCC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{05B8EB6D-2393-4014-A5E5-917649FDF135}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E14B7801-E3E1-4C4C-88A3-3651AF3FC8B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4AA2F4FC-CC2F-4A29-BD8D-0AD44CC53DF4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{227B526E-7177-49FF-A9DB-074EF9A3E3A1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
